--- a/data/trans_bre/P5_5-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P5_5-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-9,33</t>
+          <t>7,68</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-9,29</t>
+          <t>9,02</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-16,2%</t>
+          <t>15,31%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-15,43%</t>
+          <t>18,13%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-28,25; 7,13</t>
+          <t>-15,7; 29,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-27,75; 7,93</t>
+          <t>-13,72; 31,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-43,07; 14,67</t>
+          <t>-24,42; 84,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-41,65; 14,63</t>
+          <t>-22,55; 87,2</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-11,49</t>
+          <t>-20,72</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-18,49</t>
+          <t>-37,22</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-23,05%</t>
+          <t>-35,33%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-33,22%</t>
+          <t>-51,57%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-28,95; 6,99</t>
+          <t>-45,37; 3,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-38,67; -2,16</t>
+          <t>-58,29; -16,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-49,39; 17,37</t>
+          <t>-62,29; 5,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-56,45; -3,03</t>
+          <t>-70,93; -29,12</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,8</t>
+          <t>12,11</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,15</t>
+          <t>13,9</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>40,21%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>38,9%</t>
+          <t>45,76%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 21,58</t>
+          <t>-4,81; 26,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 27,17</t>
+          <t>-3,7; 28,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,31; 70,89</t>
+          <t>-12,52; 127,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 113,88</t>
+          <t>-9,18; 136,25</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-7,37</t>
+          <t>-7,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-5,37</t>
+          <t>-5,09</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-15,03%</t>
+          <t>-14,87%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-11,47%</t>
+          <t>-11,13%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-18,8; 5,25</t>
+          <t>-20,82; 6,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,19; 7,21</t>
+          <t>-19,43; 8,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-33,71; 12,94</t>
+          <t>-38,22; 16,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-32,13; 17,76</t>
+          <t>-36,62; 21,73</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,03</t>
+          <t>-2,86</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,66</t>
+          <t>-5,88</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,42%</t>
+          <t>-5,74%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-11,46%</t>
+          <t>-11,17%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-16,08; 11,67</t>
+          <t>-22,37; 14,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-19,54; 9,02</t>
+          <t>-26,9; 10,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-30,23; 28,68</t>
+          <t>-38,12; 36,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-34,65; 20,8</t>
+          <t>-44,02; 24,88</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-4,83</t>
+          <t>-15,76</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-4,32</t>
+          <t>-13,4</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-10,59%</t>
+          <t>-30,47%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-9,61%</t>
+          <t>-26,93%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-19,24; 12,75</t>
+          <t>-35,44; 8,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-17,72; 12,71</t>
+          <t>-33,53; 9,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-37,63; 34,31</t>
+          <t>-58,15; 18,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-35,28; 36,65</t>
+          <t>-56,49; 29,4</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,1</t>
+          <t>-4,44</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,0</t>
+          <t>-7,01</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-8,66%</t>
+          <t>-9,37%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-8,44%</t>
+          <t>-13,99%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,29 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 1,82</t>
+          <t>-12,06; 3,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 1,75</t>
+          <t>-15,0; 1,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-19,53; 4,69</t>
+          <t>-23,05; 8,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-20,29; 3,95</t>
+          <t>-27,2; 2,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5_5-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P5_5-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>7,68</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>9,02</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>15,31%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>18,13%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>7.679795773976617</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>10.96248933687146</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.1531263535615215</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.2256091592530259</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-15,7; 29,0</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-13,72; 31,32</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-24,42; 84,23</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-22,55; 87,2</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-15.70343207068603</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-13.09118730933038</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.2442369774946206</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.1931131633325527</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>29.00264783810275</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>33.80625957007608</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.8423386488841443</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>1.011548813815516</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-20,72</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-37,22</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-35,33%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-51,57%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-45,37; 3,44</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-58,29; -16,37</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-62,29; 5,88</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-70,93; -29,12</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-20.72119036081111</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-38.06520581446354</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.3532588966618201</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.5288208786519535</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>12,11</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>13,9</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>40,21%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>45,76%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-45.36872752127016</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-59.26145215066383</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.6229181168883827</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.7180042794786071</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,81; 26,5</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,7; 28,31</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-12,52; 127,81</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-9,18; 136,25</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3.444649873180544</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-16.56840316303124</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.05884866182684034</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>-0.2820077463638204</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +716,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-7,0</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-5,09</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-14,87%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-11,13%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>12.10720067100243</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>16.58332013167563</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.4020860327593404</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.59702328491474</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-20,82; 6,94</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-19,43; 8,17</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-38,22; 16,77</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-36,62; 21,73</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-4.808295627953125</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.1472615029975</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.1252046885426289</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.03213883050913488</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>26.50425678931202</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>30.497246372008</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>1.278062378942931</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>1.656024396991142</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-2,86</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-5,88</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-5,74%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-11,17%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-22,37; 14,9</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-26,9; 10,96</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-38,12; 36,51</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-44,02; 24,88</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-7.002502388287385</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-3.547137380070936</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.1486587110089781</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.08003051912793804</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-15,76</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-13,4</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-30,47%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-26,93%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-20.82367021020244</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-18.08834775715809</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.3821543903826206</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.3468511825651882</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-35,44; 8,04</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-33,53; 9,5</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-58,15; 18,9</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-56,49; 29,4</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>6.939244740251814</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>10.49412523925551</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.1676779183429038</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.2835703593447563</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +844,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-4,44</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-7,01</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-9,37%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-13,99%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-2.855690699660274</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-3.225266839007757</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>-0.0573975161906246</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>-0.06248237470237149</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-12,06; 3,7</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-15,0; 1,34</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-23,05; 8,47</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-27,2; 2,68</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-22.36632864400706</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-24.07853974714414</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>-0.3812297195690177</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.414631497597437</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>14.90033615461436</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>13.77316882674569</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.3650621377738791</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0.3087587870355428</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-15.7587180106234</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-10.17877378881204</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.3046977770878044</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.2189718905862947</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-35.44105315824407</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-31.60714813021603</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.5815493686986913</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.5455110033899221</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>8.043851432574479</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>13.60620558320925</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.1889968585944279</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.4240215961077144</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-4.444271290079521</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-5.219218701109584</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>-0.09368268402797286</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>-0.1071709398355296</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-12.06103197903074</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-13.36156614598825</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>-0.2305330439554937</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.2507112078531973</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>3.702569972644348</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>2.842120090871571</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.08472967496625286</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.06517960822714523</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -997,16 +1034,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
